--- a/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF271B-1E32-4F4A-8025-1E3AB654FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79A91E-02F8-4F2B-AD39-124387BCD2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="337">
   <si>
     <t>type</t>
   </si>
@@ -120,15 +120,6 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3) and ${k_district} != 'KPENDJAL OUEST') or (if(${k_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
-  </si>
-  <si>
-    <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
-  </si>
-  <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par example: TCH0001 for TCHAOUDJO.</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
@@ -151,12 +142,6 @@
   </si>
   <si>
     <t>Saisez le code QR manuellement</t>
-  </si>
-  <si>
-    <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
-  </si>
-  <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres.  Par example: TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
     <t>${k_barcode_ok} = 'Non'</t>
@@ -1598,11 +1583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:F2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1672,17 +1657,17 @@
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1">
       <c r="A2" s="36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="38" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="10"/>
@@ -1734,11 +1719,11 @@
         <v>22</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="9"/>
@@ -1784,7 +1769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="110.25">
+    <row r="6" spans="1:15" s="17" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
@@ -1800,15 +1785,9 @@
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1817,17 +1796,17 @@
     </row>
     <row r="7" spans="1:15" s="17" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="9"/>
@@ -1842,33 +1821,27 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="17" customFormat="1" ht="94.5">
+    <row r="8" spans="1:15" s="17" customFormat="1" ht="31.5">
       <c r="A8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -1879,19 +1852,19 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="31"/>
@@ -1908,19 +1881,19 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="31"/>
@@ -1937,19 +1910,19 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="31"/>
@@ -1966,19 +1939,19 @@
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="31"/>
@@ -1995,19 +1968,19 @@
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="31"/>
@@ -2024,19 +1997,19 @@
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
@@ -2053,19 +2026,19 @@
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="31"/>
@@ -2082,19 +2055,19 @@
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="31"/>
@@ -2111,17 +2084,17 @@
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="31"/>
@@ -2134,17 +2107,17 @@
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="31"/>
@@ -2157,19 +2130,19 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="11"/>
@@ -2184,10 +2157,10 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>20</v>
@@ -2209,10 +2182,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>20</v>
@@ -2258,7 +2231,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2270,4719 +2243,4719 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G96" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G103" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G104" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G105" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G106" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G107" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G108" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G109" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G112" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G113" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G114" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G115" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G116" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G117" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G118" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G119" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G120" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G121" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G122" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G123" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G124" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G125" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G126" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G127" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G128" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G130" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G131" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G132" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G133" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G134" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G136" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G137" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G138" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G140" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G141" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G142" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G143" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G144" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G145" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G146" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G147" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G148" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G149" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G150" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G151" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G152" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G153" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G154" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G155" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G156" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G157" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G158" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G159" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G160" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G161" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G162" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G163" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G164" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G165" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G166" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G167" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G168" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G169" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G170" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G171" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G173" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G174" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G175" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G176" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G177" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G178" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G179" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G180" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G181" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G182" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G183" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G184" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G185" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G186" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G187" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G189" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G190" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G191" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G192" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G193" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G194" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G196" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G197" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G198" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G199" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G200" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G201" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G202" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G203" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G204" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G205" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G206" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G207" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G208" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G210" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G211" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G212" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G213" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G215" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G216" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G217" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G218" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G219" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G220" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G221" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G222" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G223" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G224" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G225" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G226" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G227" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G228" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G229" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G230" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G231" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G232" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G233" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G234" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G235" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G236" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G237" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G238" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G239" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G240" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G241" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G242" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G244" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G245" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G246" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G247" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G248" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G249" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G250" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G251" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G253" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G254" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G255" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G256" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G257" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G258" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G259" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G260" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G261" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G262" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G263" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G264" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G265" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G266" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G267" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G268" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G269" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G270" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G271" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G272" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G273" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G274" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G275" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G276" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G277" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G278" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G279" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G280" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G281" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6998,7 +6971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7010,24 +6983,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
